--- a/stat/day07_00.xlsx
+++ b/stat/day07_00.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haruk\Desktop\競プロ\Marathon\ahc014\stat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AEF1387-210A-4690-BD8A-AD2B6B86508F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F7E1E3-06E2-44AD-9233-57FAA74CCA34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1343" windowWidth="7500" windowHeight="9870" xr2:uid="{81529408-3B82-4A1B-8E60-4A9B856FEFA8}"/>
   </bookViews>
@@ -5622,16 +5622,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>197737</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>173575</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>156917</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>44306</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>644998</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>604178</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>9177</xdr:rowOff>
+      <xdr:rowOff>104427</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5659,15 +5659,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>264069</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>127552</xdr:rowOff>
+      <xdr:colOff>611051</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>39106</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>51157</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>181340</xdr:rowOff>
+      <xdr:colOff>398139</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>92894</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5994,8 +5994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99794B93-60BA-48CB-B4A6-5F7D47D58BF7}">
   <dimension ref="A1:E109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
